--- a/QualitativeComparision_expression.xlsx
+++ b/QualitativeComparision_expression.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
-    <t xml:space="preserve">Gene</t>
+    <t xml:space="preserve">Protein</t>
   </si>
   <si>
     <t xml:space="preserve">Control 1</t>
@@ -43,16 +43,8 @@
     <t xml:space="preserve">Exprsn_C2 vs Treat_2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Kuhns &amp; Pluznick 2017.
+    <t xml:space="preserve"> Kuhns &amp; Pluznick 2017.
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Gsta2</t>
@@ -100,6 +92,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,6 +114,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,7 +196,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -211,7 +205,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
